--- a/QuantLibAddin2/AddinCfy/EUR_Market.xlsx
+++ b/QuantLibAddin2/AddinCfy/EUR_Market.xlsx
@@ -1282,9 +1282,9 @@
       <c r="A1" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="44" t="e">
-        <f ca="1">_xll.cfyql_Version()</f>
-        <v>#NAME?</v>
+      <c r="B1" s="44" t="str">
+        <f>_xll.cfyql_Version()</f>
+        <v>1.6.2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1303,18 +1303,18 @@
       <c r="A4" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="47" t="e">
-        <f ca="1">_xll.cfyql_SettingsEvaluationDate()</f>
-        <v>#NAME?</v>
+      <c r="B4" s="47">
+        <f>_xll.cfyql_SettingsEvaluationDate()</f>
+        <v>42136</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="47" t="e">
-        <f ca="1">B4+2</f>
-        <v>#NAME?</v>
+      <c r="B5" s="47">
+        <f>B4+2</f>
+        <v>42138</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1373,9 +1373,9 @@
       <c r="A13" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="47" t="e">
-        <f ca="1">DATE(YEAR(B4)+1,MONTH(B4),DAY(B4))</f>
-        <v>#NAME?</v>
+      <c r="B13" s="47">
+        <f>DATE(YEAR(B4)+1,MONTH(B4),DAY(B4))</f>
+        <v>42502</v>
       </c>
       <c r="C13" s="48"/>
     </row>
@@ -1403,9 +1403,9 @@
       <c r="A17" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="47" t="e">
-        <f ca="1">_xll.cfyql_EuropeanExercise(B4,B16,,,B13)</f>
-        <v>#NAME?</v>
+      <c r="B17" s="47" t="str">
+        <f>_xll.cfyql_EuropeanExercise(B4,B16,,,B13)</f>
+        <v>europeanExercise</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1424,9 +1424,9 @@
       <c r="A20" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="47" t="e">
-        <f ca="1">_xll.cfyql_SimpleQuote(B4,B19,,,B8)</f>
-        <v>#NAME?</v>
+      <c r="B20" s="47" t="str">
+        <f>_xll.cfyql_SimpleQuote(B4,B19,,,B8)</f>
+        <v>underlying</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1445,9 +1445,9 @@
       <c r="A23" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="47" t="e">
-        <f ca="1">_xll.cfyql_FlatForward(B4,B22,,,B5,B11,B14)</f>
-        <v>#NAME?</v>
+      <c r="B23" s="47" t="str">
+        <f>_xll.cfyql_FlatForward(B4,B22,,,B5,B11,B14)</f>
+        <v>flatTermStructure</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1466,9 +1466,9 @@
       <c r="A26" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="47" t="e">
-        <f ca="1">_xll.cfyql_FlatForward(B4,B25,,,B5,B10,B14)</f>
-        <v>#NAME?</v>
+      <c r="B26" s="47" t="str">
+        <f>_xll.cfyql_FlatForward(B4,B25,,,B5,B10,B14)</f>
+        <v>flatDividendTS</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1487,9 +1487,9 @@
       <c r="A29" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="47" t="e">
-        <f ca="1">_xll.cfyql_BlackConstantVol(B4,B28,,,B5,B3,B12,B14)</f>
-        <v>#NAME?</v>
+      <c r="B29" s="47" t="str">
+        <f>_xll.cfyql_BlackConstantVol(B4,B28,,,B5,B3,B12,B14)</f>
+        <v>flatVolTS</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1508,9 +1508,9 @@
       <c r="A32" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="47" t="e">
-        <f ca="1">_xll.cfyql_BlackScholesMertonProcess(B4,B31,,,B20,B25,B22,B28)</f>
-        <v>#NAME?</v>
+      <c r="B32" s="47" t="str">
+        <f>_xll.cfyql_BlackScholesMertonProcess(B4,B31,,,B20,B25,B22,B28)</f>
+        <v>bsmProcess</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1529,9 +1529,9 @@
       <c r="A35" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="47" t="e">
-        <f ca="1">_xll.cfyql_PlainVanillaPayoff(B4,B34,,,B7,B9)</f>
-        <v>#NAME?</v>
+      <c r="B35" s="47" t="str">
+        <f>_xll.cfyql_PlainVanillaPayoff(B4,B34,,,B7,B9)</f>
+        <v>payoff</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1550,9 +1550,9 @@
       <c r="A38" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="B38" s="47" t="e">
-        <f ca="1">_xll.cfyql_VanillaOption(B4,B37,,,B35,B17)</f>
-        <v>#NAME?</v>
+      <c r="B38" s="47" t="str">
+        <f>_xll.cfyql_VanillaOption(B4,B37,,,B35,B17)</f>
+        <v>europeanOption</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1571,9 +1571,9 @@
       <c r="A41" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="47" t="e">
-        <f ca="1">_xll.cfyql_AnalyticEuropeanEngine(B4,B40,,,B32)</f>
-        <v>#NAME?</v>
+      <c r="B41" s="47" t="str">
+        <f>_xll.cfyql_AnalyticEuropeanEngine(B4,B40,,,B32)</f>
+        <v>engine</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1584,18 +1584,18 @@
       <c r="A43" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="47" t="e">
-        <f ca="1">_xll.cfyql_InstrumentSetPricingEngine(B4,B38,B41)</f>
-        <v>#NAME?</v>
+      <c r="B43" s="47" t="b">
+        <f>_xll.cfyql_InstrumentSetPricingEngine(B4,B38,B41)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="B45" s="45" t="e">
-        <f ca="1">_xll.cfyql_InstrumentNPV(B43,B38)</f>
-        <v>#NAME?</v>
+      <c r="B45" s="45">
+        <f>_xll.cfyql_InstrumentNPV(B43,B38)</f>
+        <v>3.84429</v>
       </c>
     </row>
   </sheetData>
@@ -1658,7 +1658,10 @@
       <c r="T2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="7"/>
+      <c r="U2" s="7">
+        <f>_xll.cfyql_SettingsEvaluationDate()</f>
+        <v>42136</v>
+      </c>
     </row>
     <row r="3" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J3" s="8"/>
@@ -1817,9 +1820,9 @@
       <c r="T6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U6" s="16" t="e">
-        <f ca="1">_xll.cfyql_ObjectCount()</f>
-        <v>#NAME?</v>
+      <c r="U6" s="16">
+        <f>_xll.cfyql_ObjectCount()</f>
+        <v>1519</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -2060,13 +2063,13 @@
         <f>UPPER(Currency)&amp;"STD"</f>
         <v>EURSTD</v>
       </c>
-      <c r="L12" s="71" t="e">
-        <f ca="1">cfyql_TermStructureReferenceDate(U6,K12)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M12" s="72" t="e">
-        <f ca="1">cfyql_YieldTermStructureDiscount(,K12,L12)</f>
-        <v>#NAME?</v>
+      <c r="L12" s="71">
+        <f>_xll.cfyql_TermStructureReferenceDate(Trigger,K12)</f>
+        <v>42136</v>
+      </c>
+      <c r="M12" s="72">
+        <f>_xll.cfyql_YieldTermStructureDiscount(,K12,L12)</f>
+        <v>1</v>
       </c>
       <c r="N12" s="33"/>
       <c r="O12" s="33"/>
